--- a/JBER_new/2003-2006_Sixmile_Data.xlsx
+++ b/JBER_new/2003-2006_Sixmile_Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kellen\Documents\GitHub\Salmon-Project\JBER_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA6BAF2-8A96-432F-BFE2-3CD66D35FEF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA32523C-7241-4102-9A66-4A8632E288E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Smolt" sheetId="1" r:id="rId1"/>
+    <sheet name="Adult" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -714,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
@@ -4096,4 +4097,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A9F95E-D37A-44B4-BEF1-387EBCD165C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JBER_new/2003-2006_Sixmile_Data.xlsx
+++ b/JBER_new/2003-2006_Sixmile_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kellen\Documents\GitHub\Salmon-Project\JBER_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA32523C-7241-4102-9A66-4A8632E288E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397160C2-0A4F-4AD6-8AB5-3F755B4D284C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smolt" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
@@ -4103,7 +4103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A9F95E-D37A-44B4-BEF1-387EBCD165C5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/JBER_new/2003-2006_Sixmile_Data.xlsx
+++ b/JBER_new/2003-2006_Sixmile_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kellen\Documents\GitHub\Salmon-Project\JBER_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397160C2-0A4F-4AD6-8AB5-3F755B4D284C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC79DE4A-0C4E-4EE0-B72F-BC84D7EEC211}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
   <si>
     <t>DATE</t>
   </si>
@@ -350,13 +350,40 @@
   </si>
   <si>
     <t>22-22.5°C</t>
+  </si>
+  <si>
+    <t>Weir was installed and operating by 1400 hrs.</t>
+  </si>
+  <si>
+    <t>1 dead 3-spine stickleback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moved 32 RBT to lake </t>
+  </si>
+  <si>
+    <t>1 stickle back</t>
+  </si>
+  <si>
+    <t>1 KO stickle back</t>
+  </si>
+  <si>
+    <t>6 mort sokeye smolt</t>
+  </si>
+  <si>
+    <t>No Count</t>
+  </si>
+  <si>
+    <t>Pulled  out wier at 1100 hrs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +404,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,6 +441,26 @@
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,15 +765,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
@@ -3789,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>38885</v>
       </c>
@@ -3812,7 +3864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>38886</v>
       </c>
@@ -3835,7 +3887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>38887</v>
       </c>
@@ -3858,7 +3910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>38888</v>
       </c>
@@ -3881,7 +3933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>38889</v>
       </c>
@@ -3901,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>38890</v>
       </c>
@@ -3921,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>38891</v>
       </c>
@@ -3944,7 +3996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>38892</v>
       </c>
@@ -3967,7 +4019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>38893</v>
       </c>
@@ -3990,7 +4042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>38894</v>
       </c>
@@ -4013,7 +4065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>38895</v>
       </c>
@@ -4033,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>38896</v>
       </c>
@@ -4053,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>38897</v>
       </c>
@@ -4073,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>38898</v>
       </c>
@@ -4092,6 +4144,1410 @@
       <c r="F174">
         <v>0</v>
       </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
+        <v>39945</v>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="5"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="6"/>
+    </row>
+    <row r="177" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="12">
+        <v>39946</v>
+      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="5"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="6"/>
+    </row>
+    <row r="178" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="12">
+        <v>39947</v>
+      </c>
+      <c r="B178" s="7"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="6"/>
+    </row>
+    <row r="179" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="12">
+        <v>39948</v>
+      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="5"/>
+      <c r="N179" s="5"/>
+      <c r="O179" s="6"/>
+    </row>
+    <row r="180" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
+        <v>39949</v>
+      </c>
+      <c r="B180" s="7"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="6"/>
+    </row>
+    <row r="181" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="12">
+        <v>39950</v>
+      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="6"/>
+    </row>
+    <row r="182" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
+        <v>39951</v>
+      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="6"/>
+    </row>
+    <row r="183" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="12">
+        <v>39952</v>
+      </c>
+      <c r="B183" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="C183" s="8">
+        <v>26</v>
+      </c>
+      <c r="D183" s="8">
+        <v>0</v>
+      </c>
+      <c r="E183" s="8">
+        <v>0</v>
+      </c>
+      <c r="F183" s="8">
+        <v>2</v>
+      </c>
+      <c r="G183" s="10"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="6"/>
+    </row>
+    <row r="184" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
+        <v>39953</v>
+      </c>
+      <c r="B184" s="7">
+        <v>12</v>
+      </c>
+      <c r="C184" s="8">
+        <v>114</v>
+      </c>
+      <c r="D184" s="8">
+        <v>0</v>
+      </c>
+      <c r="E184" s="8">
+        <v>0</v>
+      </c>
+      <c r="F184" s="8">
+        <v>8</v>
+      </c>
+      <c r="G184" s="10"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
+      <c r="O184" s="6"/>
+    </row>
+    <row r="185" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <v>39954</v>
+      </c>
+      <c r="B185" s="7">
+        <v>12</v>
+      </c>
+      <c r="C185" s="8">
+        <v>86</v>
+      </c>
+      <c r="D185" s="8">
+        <v>0</v>
+      </c>
+      <c r="E185" s="8">
+        <v>0</v>
+      </c>
+      <c r="F185" s="8">
+        <v>3</v>
+      </c>
+      <c r="G185" s="10"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
+      <c r="O185" s="6"/>
+    </row>
+    <row r="186" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <v>39955</v>
+      </c>
+      <c r="B186" s="7">
+        <v>12</v>
+      </c>
+      <c r="C186" s="8">
+        <v>192</v>
+      </c>
+      <c r="D186" s="8">
+        <v>7</v>
+      </c>
+      <c r="E186" s="8">
+        <v>0</v>
+      </c>
+      <c r="F186" s="8">
+        <v>17</v>
+      </c>
+      <c r="G186" s="10"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
+      <c r="O186" s="6"/>
+    </row>
+    <row r="187" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
+        <v>39956</v>
+      </c>
+      <c r="B187" s="7">
+        <v>12</v>
+      </c>
+      <c r="C187" s="8">
+        <v>402</v>
+      </c>
+      <c r="D187" s="8">
+        <v>3</v>
+      </c>
+      <c r="E187" s="8">
+        <v>0</v>
+      </c>
+      <c r="F187" s="8">
+        <v>28</v>
+      </c>
+      <c r="G187" s="10"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5"/>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5"/>
+      <c r="O187" s="6"/>
+    </row>
+    <row r="188" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
+        <v>39957</v>
+      </c>
+      <c r="B188" s="7">
+        <v>12</v>
+      </c>
+      <c r="C188" s="8">
+        <v>87</v>
+      </c>
+      <c r="D188" s="8">
+        <v>1</v>
+      </c>
+      <c r="E188" s="8">
+        <v>0</v>
+      </c>
+      <c r="F188" s="8">
+        <v>3</v>
+      </c>
+      <c r="G188" s="10"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+      <c r="O188" s="6"/>
+    </row>
+    <row r="189" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="12">
+        <v>39958</v>
+      </c>
+      <c r="B189" s="7">
+        <v>13</v>
+      </c>
+      <c r="C189" s="8">
+        <v>375</v>
+      </c>
+      <c r="D189" s="8">
+        <v>11</v>
+      </c>
+      <c r="E189" s="8">
+        <v>0</v>
+      </c>
+      <c r="F189" s="8">
+        <v>1</v>
+      </c>
+      <c r="G189" s="10"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="6"/>
+    </row>
+    <row r="190" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="12">
+        <v>39959</v>
+      </c>
+      <c r="B190" s="7">
+        <v>13</v>
+      </c>
+      <c r="C190" s="8">
+        <v>83</v>
+      </c>
+      <c r="D190" s="8">
+        <v>3</v>
+      </c>
+      <c r="E190" s="8">
+        <v>0</v>
+      </c>
+      <c r="F190" s="8">
+        <v>0</v>
+      </c>
+      <c r="G190" s="10"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="5"/>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="6"/>
+    </row>
+    <row r="191" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="12">
+        <v>39960</v>
+      </c>
+      <c r="B191" s="7">
+        <v>13</v>
+      </c>
+      <c r="C191" s="8">
+        <v>209</v>
+      </c>
+      <c r="D191" s="8">
+        <v>1</v>
+      </c>
+      <c r="E191" s="8">
+        <v>0</v>
+      </c>
+      <c r="F191" s="8">
+        <v>0</v>
+      </c>
+      <c r="G191" s="10"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="5"/>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="6"/>
+    </row>
+    <row r="192" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="12">
+        <v>39961</v>
+      </c>
+      <c r="B192" s="7">
+        <v>12</v>
+      </c>
+      <c r="C192" s="8">
+        <v>38</v>
+      </c>
+      <c r="D192" s="8">
+        <v>0</v>
+      </c>
+      <c r="E192" s="8">
+        <v>0</v>
+      </c>
+      <c r="F192" s="8">
+        <v>0</v>
+      </c>
+      <c r="G192" s="10"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="5"/>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="6"/>
+    </row>
+    <row r="193" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="12">
+        <v>39962</v>
+      </c>
+      <c r="B193" s="7">
+        <v>12</v>
+      </c>
+      <c r="C193" s="8">
+        <v>28</v>
+      </c>
+      <c r="D193" s="8">
+        <v>0</v>
+      </c>
+      <c r="E193" s="8">
+        <v>0</v>
+      </c>
+      <c r="F193" s="8">
+        <v>1</v>
+      </c>
+      <c r="G193" s="10"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="5"/>
+      <c r="L193" s="5"/>
+      <c r="M193" s="5"/>
+      <c r="N193" s="5"/>
+      <c r="O193" s="6"/>
+    </row>
+    <row r="194" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="12">
+        <v>39963</v>
+      </c>
+      <c r="B194" s="7">
+        <v>14</v>
+      </c>
+      <c r="C194" s="8">
+        <v>23</v>
+      </c>
+      <c r="D194" s="8">
+        <v>1</v>
+      </c>
+      <c r="E194" s="8">
+        <v>0</v>
+      </c>
+      <c r="F194" s="8">
+        <v>1</v>
+      </c>
+      <c r="G194" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="6"/>
+    </row>
+    <row r="195" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
+        <v>39964</v>
+      </c>
+      <c r="B195" s="7">
+        <v>15</v>
+      </c>
+      <c r="C195" s="8">
+        <v>8</v>
+      </c>
+      <c r="D195" s="8">
+        <v>0</v>
+      </c>
+      <c r="E195" s="8">
+        <v>0</v>
+      </c>
+      <c r="F195" s="8">
+        <v>1</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="5"/>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="6"/>
+    </row>
+    <row r="196" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
+        <v>39965</v>
+      </c>
+      <c r="B196" s="7">
+        <v>16</v>
+      </c>
+      <c r="C196" s="8">
+        <v>64</v>
+      </c>
+      <c r="D196" s="8">
+        <v>2</v>
+      </c>
+      <c r="E196" s="8">
+        <v>0</v>
+      </c>
+      <c r="F196" s="8">
+        <v>0</v>
+      </c>
+      <c r="G196" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5"/>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="6"/>
+    </row>
+    <row r="197" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <v>39966</v>
+      </c>
+      <c r="B197" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="C197" s="8">
+        <v>117</v>
+      </c>
+      <c r="D197" s="8">
+        <v>0</v>
+      </c>
+      <c r="E197" s="8">
+        <v>0</v>
+      </c>
+      <c r="F197" s="8">
+        <v>1</v>
+      </c>
+      <c r="G197" s="10"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="6"/>
+    </row>
+    <row r="198" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="12">
+        <v>39967</v>
+      </c>
+      <c r="B198" s="7">
+        <v>16</v>
+      </c>
+      <c r="C198" s="8">
+        <v>123</v>
+      </c>
+      <c r="D198" s="8">
+        <v>0</v>
+      </c>
+      <c r="E198" s="8">
+        <v>0</v>
+      </c>
+      <c r="F198" s="8">
+        <v>0</v>
+      </c>
+      <c r="G198" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5"/>
+      <c r="N198" s="5"/>
+      <c r="O198" s="6"/>
+    </row>
+    <row r="199" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="12">
+        <v>39968</v>
+      </c>
+      <c r="B199" s="7">
+        <v>16</v>
+      </c>
+      <c r="C199" s="8">
+        <v>238</v>
+      </c>
+      <c r="D199" s="8">
+        <v>0</v>
+      </c>
+      <c r="E199" s="8">
+        <v>0</v>
+      </c>
+      <c r="F199" s="8">
+        <v>1</v>
+      </c>
+      <c r="G199" s="10"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="5"/>
+      <c r="N199" s="5"/>
+      <c r="O199" s="6"/>
+    </row>
+    <row r="200" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="12">
+        <v>39969</v>
+      </c>
+      <c r="B200" s="7">
+        <v>16</v>
+      </c>
+      <c r="C200" s="8">
+        <v>1071</v>
+      </c>
+      <c r="D200" s="8">
+        <v>4</v>
+      </c>
+      <c r="E200" s="8">
+        <v>0</v>
+      </c>
+      <c r="F200" s="8">
+        <v>0</v>
+      </c>
+      <c r="G200" s="10"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="5"/>
+      <c r="L200" s="5"/>
+      <c r="M200" s="5"/>
+      <c r="N200" s="5"/>
+      <c r="O200" s="6"/>
+    </row>
+    <row r="201" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
+        <v>39970</v>
+      </c>
+      <c r="B201" s="7">
+        <v>16</v>
+      </c>
+      <c r="C201" s="8">
+        <v>483</v>
+      </c>
+      <c r="D201" s="8">
+        <v>0</v>
+      </c>
+      <c r="E201" s="8">
+        <v>0</v>
+      </c>
+      <c r="F201" s="8">
+        <v>3</v>
+      </c>
+      <c r="G201" s="10"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
+      <c r="M201" s="5"/>
+      <c r="N201" s="5"/>
+      <c r="O201" s="6"/>
+    </row>
+    <row r="202" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="12">
+        <v>39971</v>
+      </c>
+      <c r="B202" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="C202" s="8">
+        <v>963</v>
+      </c>
+      <c r="D202" s="8">
+        <v>1</v>
+      </c>
+      <c r="E202" s="8">
+        <v>0</v>
+      </c>
+      <c r="F202" s="8">
+        <v>0</v>
+      </c>
+      <c r="G202" s="10"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="5"/>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="5"/>
+      <c r="N202" s="5"/>
+      <c r="O202" s="6"/>
+    </row>
+    <row r="203" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="12">
+        <v>39972</v>
+      </c>
+      <c r="B203" s="7">
+        <v>16</v>
+      </c>
+      <c r="C203" s="8">
+        <v>1103</v>
+      </c>
+      <c r="D203" s="8">
+        <v>3</v>
+      </c>
+      <c r="E203" s="8">
+        <v>0</v>
+      </c>
+      <c r="F203" s="8">
+        <v>0</v>
+      </c>
+      <c r="G203" s="10"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="5"/>
+      <c r="K203" s="5"/>
+      <c r="L203" s="5"/>
+      <c r="M203" s="5"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="6"/>
+    </row>
+    <row r="204" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="12">
+        <v>39973</v>
+      </c>
+      <c r="B204" s="7">
+        <v>18</v>
+      </c>
+      <c r="C204" s="8">
+        <v>636</v>
+      </c>
+      <c r="D204" s="8">
+        <v>2</v>
+      </c>
+      <c r="E204" s="8">
+        <v>0</v>
+      </c>
+      <c r="F204" s="8">
+        <v>1</v>
+      </c>
+      <c r="G204" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="5"/>
+      <c r="K204" s="5"/>
+      <c r="L204" s="5"/>
+      <c r="M204" s="5"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="6"/>
+    </row>
+    <row r="205" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
+        <v>39974</v>
+      </c>
+      <c r="B205" s="7">
+        <v>19</v>
+      </c>
+      <c r="C205" s="8">
+        <v>357</v>
+      </c>
+      <c r="D205" s="8">
+        <v>0</v>
+      </c>
+      <c r="E205" s="8">
+        <v>0</v>
+      </c>
+      <c r="F205" s="8">
+        <v>0</v>
+      </c>
+      <c r="G205" s="10"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="6"/>
+    </row>
+    <row r="206" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="12">
+        <v>39975</v>
+      </c>
+      <c r="B206" s="7">
+        <v>19</v>
+      </c>
+      <c r="C206" s="8">
+        <v>44</v>
+      </c>
+      <c r="D206" s="8">
+        <v>0</v>
+      </c>
+      <c r="E206" s="8">
+        <v>0</v>
+      </c>
+      <c r="F206" s="8">
+        <v>0</v>
+      </c>
+      <c r="G206" s="10"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="5"/>
+      <c r="M206" s="5"/>
+      <c r="N206" s="5"/>
+      <c r="O206" s="6"/>
+    </row>
+    <row r="207" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="12">
+        <v>39976</v>
+      </c>
+      <c r="B207" s="7">
+        <v>19</v>
+      </c>
+      <c r="C207" s="8">
+        <v>123</v>
+      </c>
+      <c r="D207" s="8">
+        <v>0</v>
+      </c>
+      <c r="E207" s="8">
+        <v>0</v>
+      </c>
+      <c r="F207" s="8">
+        <v>0</v>
+      </c>
+      <c r="G207" s="10"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="5"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="6"/>
+    </row>
+    <row r="208" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="12">
+        <v>39977</v>
+      </c>
+      <c r="B208" s="7">
+        <v>18</v>
+      </c>
+      <c r="C208" s="8">
+        <v>488</v>
+      </c>
+      <c r="D208" s="8">
+        <v>0</v>
+      </c>
+      <c r="E208" s="8">
+        <v>0</v>
+      </c>
+      <c r="F208" s="8">
+        <v>1</v>
+      </c>
+      <c r="G208" s="10"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="5"/>
+      <c r="M208" s="5"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="6"/>
+    </row>
+    <row r="209" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="12">
+        <v>39978</v>
+      </c>
+      <c r="B209" s="7">
+        <v>18</v>
+      </c>
+      <c r="C209" s="8">
+        <v>303</v>
+      </c>
+      <c r="D209" s="8">
+        <v>3</v>
+      </c>
+      <c r="E209" s="8">
+        <v>0</v>
+      </c>
+      <c r="F209" s="8">
+        <v>0</v>
+      </c>
+      <c r="G209" s="10"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="6"/>
+    </row>
+    <row r="210" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="12">
+        <v>39979</v>
+      </c>
+      <c r="B210" s="7">
+        <v>18</v>
+      </c>
+      <c r="C210" s="8">
+        <v>237</v>
+      </c>
+      <c r="D210" s="8">
+        <v>0</v>
+      </c>
+      <c r="E210" s="8">
+        <v>0</v>
+      </c>
+      <c r="F210" s="8">
+        <v>0</v>
+      </c>
+      <c r="G210" s="10"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+      <c r="J210" s="5"/>
+      <c r="K210" s="5"/>
+      <c r="L210" s="5"/>
+      <c r="M210" s="5"/>
+      <c r="N210" s="5"/>
+      <c r="O210" s="6"/>
+    </row>
+    <row r="211" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="12">
+        <v>39980</v>
+      </c>
+      <c r="B211" s="7">
+        <v>19</v>
+      </c>
+      <c r="C211" s="8">
+        <v>10</v>
+      </c>
+      <c r="D211" s="8">
+        <v>0</v>
+      </c>
+      <c r="E211" s="8">
+        <v>0</v>
+      </c>
+      <c r="F211" s="8">
+        <v>0</v>
+      </c>
+      <c r="G211" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5"/>
+      <c r="K211" s="5"/>
+      <c r="L211" s="5"/>
+      <c r="M211" s="5"/>
+      <c r="N211" s="5"/>
+      <c r="O211" s="6"/>
+    </row>
+    <row r="212" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="12">
+        <v>39981</v>
+      </c>
+      <c r="B212" s="7">
+        <v>18</v>
+      </c>
+      <c r="C212" s="8">
+        <v>42</v>
+      </c>
+      <c r="D212" s="8">
+        <v>0</v>
+      </c>
+      <c r="E212" s="8">
+        <v>0</v>
+      </c>
+      <c r="F212" s="8">
+        <v>0</v>
+      </c>
+      <c r="G212" s="10"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="5"/>
+      <c r="M212" s="5"/>
+      <c r="N212" s="5"/>
+      <c r="O212" s="6"/>
+    </row>
+    <row r="213" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="12">
+        <v>39982</v>
+      </c>
+      <c r="B213" s="7">
+        <v>18</v>
+      </c>
+      <c r="C213" s="8">
+        <v>318</v>
+      </c>
+      <c r="D213" s="8">
+        <v>4</v>
+      </c>
+      <c r="E213" s="8">
+        <v>0</v>
+      </c>
+      <c r="F213" s="8">
+        <v>0</v>
+      </c>
+      <c r="G213" s="10"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="6"/>
+    </row>
+    <row r="214" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="12">
+        <v>39983</v>
+      </c>
+      <c r="B214" s="7">
+        <v>18</v>
+      </c>
+      <c r="C214" s="8">
+        <v>47</v>
+      </c>
+      <c r="D214" s="8">
+        <v>1</v>
+      </c>
+      <c r="E214" s="8">
+        <v>0</v>
+      </c>
+      <c r="F214" s="8">
+        <v>0</v>
+      </c>
+      <c r="G214" s="10"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="5"/>
+      <c r="O214" s="6"/>
+    </row>
+    <row r="215" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="12">
+        <v>39984</v>
+      </c>
+      <c r="B215" s="7">
+        <v>18</v>
+      </c>
+      <c r="C215" s="8">
+        <v>38</v>
+      </c>
+      <c r="D215" s="8">
+        <v>2</v>
+      </c>
+      <c r="E215" s="8">
+        <v>0</v>
+      </c>
+      <c r="F215" s="8">
+        <v>0</v>
+      </c>
+      <c r="G215" s="10"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="5"/>
+      <c r="L215" s="5"/>
+      <c r="M215" s="5"/>
+      <c r="N215" s="5"/>
+      <c r="O215" s="6"/>
+    </row>
+    <row r="216" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="12">
+        <v>39985</v>
+      </c>
+      <c r="B216" s="7">
+        <v>18</v>
+      </c>
+      <c r="C216" s="8">
+        <v>35</v>
+      </c>
+      <c r="D216" s="8">
+        <v>0</v>
+      </c>
+      <c r="E216" s="8">
+        <v>0</v>
+      </c>
+      <c r="F216" s="8">
+        <v>0</v>
+      </c>
+      <c r="G216" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="5"/>
+      <c r="N216" s="5"/>
+      <c r="O216" s="6"/>
+    </row>
+    <row r="217" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="12">
+        <v>39986</v>
+      </c>
+      <c r="B217" s="7"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="5"/>
+      <c r="N217" s="5"/>
+      <c r="O217" s="6"/>
+    </row>
+    <row r="218" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="12">
+        <v>39987</v>
+      </c>
+      <c r="B218" s="7">
+        <v>17</v>
+      </c>
+      <c r="C218" s="8">
+        <v>29</v>
+      </c>
+      <c r="D218" s="8">
+        <v>0</v>
+      </c>
+      <c r="E218" s="8">
+        <v>0</v>
+      </c>
+      <c r="F218" s="8">
+        <v>0</v>
+      </c>
+      <c r="G218" s="10"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="5"/>
+      <c r="M218" s="5"/>
+      <c r="N218" s="5"/>
+      <c r="O218" s="6"/>
+    </row>
+    <row r="219" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="12">
+        <v>39988</v>
+      </c>
+      <c r="B219" s="7">
+        <v>17</v>
+      </c>
+      <c r="C219" s="8">
+        <v>12</v>
+      </c>
+      <c r="D219" s="8">
+        <v>0</v>
+      </c>
+      <c r="E219" s="8">
+        <v>0</v>
+      </c>
+      <c r="F219" s="8">
+        <v>0</v>
+      </c>
+      <c r="G219" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5"/>
+      <c r="N219" s="5"/>
+      <c r="O219" s="6"/>
+    </row>
+    <row r="220" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="12">
+        <v>39989</v>
+      </c>
+      <c r="B220" s="7">
+        <v>17</v>
+      </c>
+      <c r="C220" s="8">
+        <v>0</v>
+      </c>
+      <c r="D220" s="8">
+        <v>1</v>
+      </c>
+      <c r="E220" s="8">
+        <v>0</v>
+      </c>
+      <c r="F220" s="8">
+        <v>0</v>
+      </c>
+      <c r="G220" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5"/>
+      <c r="L220" s="5"/>
+      <c r="M220" s="5"/>
+      <c r="N220" s="5"/>
+      <c r="O220" s="6"/>
+    </row>
+    <row r="221" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="12">
+        <v>39990</v>
+      </c>
+      <c r="B221" s="7">
+        <v>17</v>
+      </c>
+      <c r="C221" s="8">
+        <v>18</v>
+      </c>
+      <c r="D221" s="8">
+        <v>0</v>
+      </c>
+      <c r="E221" s="8">
+        <v>0</v>
+      </c>
+      <c r="F221" s="8">
+        <v>0</v>
+      </c>
+      <c r="G221" s="8"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5"/>
+      <c r="L221" s="5"/>
+      <c r="M221" s="5"/>
+      <c r="N221" s="5"/>
+      <c r="O221" s="6"/>
+    </row>
+    <row r="222" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="12">
+        <v>39991</v>
+      </c>
+      <c r="B222" s="7"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5"/>
+      <c r="L222" s="5"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="6"/>
+    </row>
+    <row r="223" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="12">
+        <v>39992</v>
+      </c>
+      <c r="B223" s="7">
+        <v>18</v>
+      </c>
+      <c r="C223" s="8">
+        <v>3</v>
+      </c>
+      <c r="D223" s="8">
+        <v>0</v>
+      </c>
+      <c r="E223" s="8">
+        <v>0</v>
+      </c>
+      <c r="F223" s="8">
+        <v>0</v>
+      </c>
+      <c r="G223" s="8"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5"/>
+      <c r="M223" s="5"/>
+      <c r="N223" s="5"/>
+      <c r="O223" s="6"/>
+    </row>
+    <row r="224" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="12">
+        <v>39993</v>
+      </c>
+      <c r="B224" s="7">
+        <v>18</v>
+      </c>
+      <c r="C224" s="8">
+        <v>1</v>
+      </c>
+      <c r="D224" s="8">
+        <v>0</v>
+      </c>
+      <c r="E224" s="8">
+        <v>0</v>
+      </c>
+      <c r="F224" s="8">
+        <v>0</v>
+      </c>
+      <c r="G224" s="8"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="5"/>
+      <c r="M224" s="5"/>
+      <c r="N224" s="5"/>
+      <c r="O224" s="6"/>
+    </row>
+    <row r="225" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="12">
+        <v>39994</v>
+      </c>
+      <c r="B225" s="7"/>
+      <c r="C225" s="8"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="8"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="5"/>
+      <c r="L225" s="5"/>
+      <c r="M225" s="5"/>
+      <c r="N225" s="5"/>
+      <c r="O225" s="6"/>
+    </row>
+    <row r="226" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="12">
+        <v>39995</v>
+      </c>
+      <c r="B226" s="11">
+        <v>19</v>
+      </c>
+      <c r="C226" s="8">
+        <v>40</v>
+      </c>
+      <c r="D226" s="8">
+        <v>2</v>
+      </c>
+      <c r="E226" s="8">
+        <v>0</v>
+      </c>
+      <c r="F226" s="8">
+        <v>1</v>
+      </c>
+      <c r="G226" s="8"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="5"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="5"/>
+      <c r="N226" s="5"/>
+      <c r="O226" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
